--- a/relatorios/repasses_liberados/dentistas/70594152461/2023-08-25_relatorio_repasses_70594152461.xlsx
+++ b/relatorios/repasses_liberados/dentistas/70594152461/2023-08-25_relatorio_repasses_70594152461.xlsx
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -13407,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N261">
         <v>0</v>
@@ -14023,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -14067,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -14331,10 +14331,10 @@
         <v>0.265116</v>
       </c>
       <c r="M282">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N282">
-        <v>0</v>
+        <v>9.066967199999999</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -14375,10 +14375,10 @@
         <v>0.32093</v>
       </c>
       <c r="M283">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N283">
-        <v>13.286502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -15035,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -15475,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N308">
         <v>0</v>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N338">
         <v>0</v>
@@ -17103,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -18643,7 +18643,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -18687,7 +18687,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N381">
         <v>0</v>
@@ -18863,7 +18863,7 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N385">
         <v>0</v>
@@ -18995,7 +18995,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N389">
         <v>0</v>
@@ -19127,7 +19127,7 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N391">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -20227,10 +20227,10 @@
         <v>1</v>
       </c>
       <c r="M416">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N416">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -20623,7 +20623,7 @@
         <v>0</v>
       </c>
       <c r="M425">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N425">
         <v>0</v>
@@ -20667,7 +20667,7 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N426">
         <v>0</v>
@@ -21063,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="M435">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N435">
         <v>0</v>
@@ -21503,7 +21503,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N445">
         <v>0</v>
@@ -21547,7 +21547,7 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N446">
         <v>0</v>
@@ -35671,7 +35671,7 @@
         <v>0</v>
       </c>
       <c r="M767">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N767">
         <v>0</v>
@@ -37299,7 +37299,7 @@
         <v>0</v>
       </c>
       <c r="M804">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N804">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="M806">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N806">
         <v>0</v>
@@ -37651,7 +37651,7 @@
         <v>0</v>
       </c>
       <c r="M812">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N812">
         <v>0</v>
@@ -37739,7 +37739,7 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N814">
         <v>0</v>
@@ -38663,7 +38663,7 @@
         <v>0</v>
       </c>
       <c r="M835">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N835">
         <v>0</v>
@@ -38707,7 +38707,7 @@
         <v>0</v>
       </c>
       <c r="M836">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N836">
         <v>0</v>
@@ -39499,7 +39499,7 @@
         <v>0</v>
       </c>
       <c r="M854">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N854">
         <v>0</v>
@@ -47595,7 +47595,7 @@
         <v>0</v>
       </c>
       <c r="M1038">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1038">
         <v>0</v>
@@ -47727,7 +47727,7 @@
         <v>0</v>
       </c>
       <c r="M1041">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1041">
         <v>0</v>
@@ -48167,7 +48167,7 @@
         <v>0</v>
       </c>
       <c r="M1051">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1051">
         <v>0</v>
@@ -48431,7 +48431,7 @@
         <v>0</v>
       </c>
       <c r="M1057">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1057">
         <v>0</v>
@@ -48475,7 +48475,7 @@
         <v>0</v>
       </c>
       <c r="M1058">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1058">
         <v>0</v>
@@ -49047,7 +49047,7 @@
         <v>0</v>
       </c>
       <c r="M1071">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1071">
         <v>0</v>
@@ -53315,7 +53315,7 @@
         <v>0</v>
       </c>
       <c r="M1168">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1168">
         <v>0</v>
@@ -53359,7 +53359,7 @@
         <v>0</v>
       </c>
       <c r="M1169">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1169">
         <v>0</v>
@@ -54239,7 +54239,7 @@
         <v>0</v>
       </c>
       <c r="M1189">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1189">
         <v>0</v>
@@ -54283,7 +54283,7 @@
         <v>0</v>
       </c>
       <c r="M1190">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1190">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/70594152461/2023-08-25_relatorio_repasses_70594152461.xlsx
+++ b/relatorios/repasses_liberados/dentistas/70594152461/2023-08-25_relatorio_repasses_70594152461.xlsx
@@ -5487,10 +5487,10 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5531,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N82">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5575,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N83">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5663,10 +5663,10 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>6.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5795,10 +5795,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N88">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5839,10 +5839,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>6.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -6059,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -6147,10 +6147,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N96">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N104">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6807,10 +6807,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N111">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6895,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N113">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6939,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N114">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7819,10 +7819,10 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N134">
-        <v>9.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8831,10 +8831,10 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N157">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -9007,10 +9007,10 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N161">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -9051,10 +9051,10 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N162">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -9095,10 +9095,10 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -9315,10 +9315,10 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N168">
-        <v>5.943</v>
+        <v>7.923999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -9579,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N174">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -9623,10 +9623,10 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N175">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -9843,10 +9843,10 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N180">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N181">
-        <v>5.184</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -10459,10 +10459,10 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N194">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10767,10 +10767,10 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -10987,10 +10987,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N206">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11207,10 +11207,10 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N211">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11559,10 +11559,10 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N219">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -11647,10 +11647,10 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N221">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -11691,10 +11691,10 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N222">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -11779,10 +11779,10 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N224">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11823,10 +11823,10 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N225">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -12043,10 +12043,10 @@
         <v>1</v>
       </c>
       <c r="M230">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
-        <v>0</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -12439,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N239">
         <v>0</v>
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N242">
         <v>0</v>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N243">
         <v>0</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -12703,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -13055,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N253">
         <v>0</v>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N259">
         <v>0</v>
@@ -13407,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N261">
         <v>0</v>
@@ -13451,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N262">
         <v>0</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="M265">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N265">
         <v>0</v>
@@ -13627,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N266">
         <v>0</v>
@@ -13759,7 +13759,7 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N269">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N271">
         <v>0</v>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N274">
         <v>0</v>
@@ -14067,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -14331,10 +14331,10 @@
         <v>0.265116</v>
       </c>
       <c r="M282">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N282">
-        <v>9.066967199999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -14419,10 +14419,10 @@
         <v>0.32093</v>
       </c>
       <c r="M284">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N284">
-        <v>13.286502</v>
+        <v>65</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N289">
         <v>0</v>
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N290">
         <v>0</v>
@@ -14903,7 +14903,7 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
         <v>0</v>
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -15079,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -15211,7 +15211,7 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -15387,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -15519,7 +15519,7 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N309">
         <v>0</v>
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N314">
         <v>0</v>
@@ -15783,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -15827,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N316">
         <v>0</v>
@@ -16003,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N320">
         <v>0</v>
@@ -16179,10 +16179,10 @@
         <v>1</v>
       </c>
       <c r="M324">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N324">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N329">
         <v>0</v>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N338">
         <v>0</v>
@@ -16839,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N339">
         <v>0</v>
@@ -16883,7 +16883,7 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N340">
         <v>0</v>
@@ -16927,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N341">
         <v>0</v>
@@ -17103,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -17147,7 +17147,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -17191,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N348">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -17411,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -17455,7 +17455,7 @@
         <v>0</v>
       </c>
       <c r="M353">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N353">
         <v>0</v>
@@ -17499,7 +17499,7 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N354">
         <v>0</v>
@@ -17543,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N355">
         <v>0</v>
@@ -17851,10 +17851,10 @@
         <v>0.769231</v>
       </c>
       <c r="M362">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N362">
-        <v>153.8462</v>
+        <v>115.38465</v>
       </c>
     </row>
     <row r="363" spans="1:14">
@@ -17895,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="M365">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N365">
         <v>0</v>
@@ -18027,7 +18027,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -18071,7 +18071,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N368">
         <v>0</v>
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -18203,7 +18203,7 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N370">
         <v>0</v>
@@ -18247,7 +18247,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N372">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N373">
         <v>0</v>
@@ -18379,7 +18379,7 @@
         <v>0</v>
       </c>
       <c r="M374">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N374">
         <v>0</v>
@@ -18555,7 +18555,7 @@
         <v>0</v>
       </c>
       <c r="M378">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N378">
         <v>0</v>
@@ -18643,7 +18643,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N382">
         <v>0</v>
@@ -18775,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -18819,7 +18819,7 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -18995,7 +18995,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N389">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -19303,7 +19303,7 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N395">
         <v>0</v>
@@ -19347,7 +19347,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N396">
         <v>0</v>
@@ -19391,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N397">
         <v>0</v>
@@ -19435,7 +19435,7 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N398">
         <v>0</v>
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N399">
         <v>0</v>
@@ -19611,7 +19611,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -19655,7 +19655,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N403">
         <v>0</v>
@@ -20095,7 +20095,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N413">
         <v>0</v>
@@ -20183,7 +20183,7 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N415">
         <v>0</v>
@@ -20227,10 +20227,10 @@
         <v>1</v>
       </c>
       <c r="M416">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N416">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -20359,7 +20359,7 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N419">
         <v>0</v>
@@ -20403,10 +20403,10 @@
         <v>0.846154</v>
       </c>
       <c r="M420">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N420">
-        <v>10</v>
+        <v>139.61541</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -20535,7 +20535,7 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N423">
         <v>0</v>
@@ -20667,7 +20667,7 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N426">
         <v>0</v>
@@ -21063,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="M435">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N435">
         <v>0</v>
@@ -21107,7 +21107,7 @@
         <v>0</v>
       </c>
       <c r="M436">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N436">
         <v>0</v>
@@ -21503,7 +21503,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N445">
         <v>0</v>
@@ -21547,7 +21547,7 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N446">
         <v>0</v>
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="M450">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N450">
         <v>0</v>
@@ -21767,7 +21767,7 @@
         <v>0</v>
       </c>
       <c r="M451">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N451">
         <v>0</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="M471">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N471">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="M472">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N472">
         <v>0</v>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N563">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="564" spans="1:14">
@@ -26739,10 +26739,10 @@
         <v>0</v>
       </c>
       <c r="M564">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N564">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="565" spans="1:14">
@@ -26783,10 +26783,10 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N565">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="566" spans="1:14">
@@ -26959,10 +26959,10 @@
         <v>0</v>
       </c>
       <c r="M569">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N569">
-        <v>9.843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:14">
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="M586">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N586">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="587" spans="1:14">
@@ -27751,10 +27751,10 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N587">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="588" spans="1:14">
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N589">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="590" spans="1:14">
@@ -28235,10 +28235,10 @@
         <v>0</v>
       </c>
       <c r="M598">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N598">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="599" spans="1:14">
@@ -28587,10 +28587,10 @@
         <v>0</v>
       </c>
       <c r="M606">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N606">
-        <v>9.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:14">
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="M613">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N613">
-        <v>6.405</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="614" spans="1:14">
@@ -29071,10 +29071,10 @@
         <v>0</v>
       </c>
       <c r="M617">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N617">
-        <v>3.798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:14">
@@ -29115,10 +29115,10 @@
         <v>0</v>
       </c>
       <c r="M618">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N618">
-        <v>9.843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:14">
@@ -29247,10 +29247,10 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N621">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="622" spans="1:14">
@@ -29291,10 +29291,10 @@
         <v>0</v>
       </c>
       <c r="M622">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N622">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="623" spans="1:14">
@@ -29819,10 +29819,10 @@
         <v>0</v>
       </c>
       <c r="M634">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N634">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="635" spans="1:14">
@@ -30215,10 +30215,10 @@
         <v>0</v>
       </c>
       <c r="M643">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N643">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="644" spans="1:14">
@@ -31095,10 +31095,10 @@
         <v>0</v>
       </c>
       <c r="M663">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N663">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:14">
@@ -31535,10 +31535,10 @@
         <v>0</v>
       </c>
       <c r="M673">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N673">
-        <v>0.051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:14">
@@ -31579,10 +31579,10 @@
         <v>0</v>
       </c>
       <c r="M674">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N674">
-        <v>10.671</v>
+        <v>65</v>
       </c>
     </row>
     <row r="675" spans="1:14">
@@ -31799,10 +31799,10 @@
         <v>0</v>
       </c>
       <c r="M679">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N679">
-        <v>0.006</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:14">
@@ -32063,10 +32063,10 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N685">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="686" spans="1:14">
@@ -32107,10 +32107,10 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N686">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="687" spans="1:14">
@@ -32415,10 +32415,10 @@
         <v>0</v>
       </c>
       <c r="M693">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N693">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="694" spans="1:14">
@@ -32459,10 +32459,10 @@
         <v>0</v>
       </c>
       <c r="M694">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N694">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="695" spans="1:14">
@@ -32635,10 +32635,10 @@
         <v>0</v>
       </c>
       <c r="M698">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N698">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="699" spans="1:14">
@@ -33163,10 +33163,10 @@
         <v>0</v>
       </c>
       <c r="M710">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N710">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:14">
@@ -33207,10 +33207,10 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N711">
-        <v>9.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:14">
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="M712">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N712">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="713" spans="1:14">
@@ -34263,10 +34263,10 @@
         <v>0</v>
       </c>
       <c r="M735">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N735">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="736" spans="1:14">
@@ -34307,10 +34307,10 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N736">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="737" spans="1:14">
@@ -34527,10 +34527,10 @@
         <v>0</v>
       </c>
       <c r="M741">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N741">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="742" spans="1:14">
@@ -34615,7 +34615,7 @@
         <v>0</v>
       </c>
       <c r="M743">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N743">
         <v>0</v>
@@ -34791,7 +34791,7 @@
         <v>0</v>
       </c>
       <c r="M747">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N747">
         <v>0</v>
@@ -34879,7 +34879,7 @@
         <v>0</v>
       </c>
       <c r="M749">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N749">
         <v>0</v>
@@ -34967,7 +34967,7 @@
         <v>0</v>
       </c>
       <c r="M751">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N751">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="M752">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N752">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="M761">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N761">
         <v>0</v>
@@ -35451,7 +35451,7 @@
         <v>0</v>
       </c>
       <c r="M762">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N762">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M763">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N763">
         <v>0</v>
@@ -35539,7 +35539,7 @@
         <v>0</v>
       </c>
       <c r="M764">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N764">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="M765">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N765">
         <v>0</v>
@@ -35671,7 +35671,7 @@
         <v>0</v>
       </c>
       <c r="M767">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N767">
         <v>0</v>
@@ -36111,7 +36111,7 @@
         <v>0</v>
       </c>
       <c r="M777">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N777">
         <v>0</v>
@@ -36331,7 +36331,7 @@
         <v>0</v>
       </c>
       <c r="M782">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N782">
         <v>0</v>
@@ -36551,7 +36551,7 @@
         <v>0</v>
       </c>
       <c r="M787">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N787">
         <v>0</v>
@@ -36639,7 +36639,7 @@
         <v>0</v>
       </c>
       <c r="M789">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N789">
         <v>0</v>
@@ -36815,7 +36815,7 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N793">
         <v>0</v>
@@ -36859,7 +36859,7 @@
         <v>0</v>
       </c>
       <c r="M794">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N794">
         <v>0</v>
@@ -36903,7 +36903,7 @@
         <v>0</v>
       </c>
       <c r="M795">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N795">
         <v>0</v>
@@ -36947,7 +36947,7 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N796">
         <v>0</v>
@@ -37123,7 +37123,7 @@
         <v>0</v>
       </c>
       <c r="M800">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N800">
         <v>0</v>
@@ -37255,7 +37255,7 @@
         <v>0</v>
       </c>
       <c r="M803">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N803">
         <v>0</v>
@@ -37299,7 +37299,7 @@
         <v>0</v>
       </c>
       <c r="M804">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N804">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>0</v>
       </c>
       <c r="M808">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N808">
         <v>0</v>
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="M811">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N811">
         <v>0</v>
@@ -37651,7 +37651,7 @@
         <v>0</v>
       </c>
       <c r="M812">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N812">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="M813">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N813">
         <v>0</v>
@@ -37739,7 +37739,7 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N814">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N815">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="M819">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N819">
         <v>0</v>
@@ -38003,7 +38003,7 @@
         <v>0</v>
       </c>
       <c r="M820">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N820">
         <v>0</v>
@@ -38047,7 +38047,7 @@
         <v>0</v>
       </c>
       <c r="M821">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N821">
         <v>0</v>
@@ -38311,10 +38311,10 @@
         <v>1</v>
       </c>
       <c r="M827">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N827">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:14">
@@ -38487,7 +38487,7 @@
         <v>0</v>
       </c>
       <c r="M831">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N831">
         <v>0</v>
@@ -38663,7 +38663,7 @@
         <v>0</v>
       </c>
       <c r="M835">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N835">
         <v>0</v>
@@ -38751,7 +38751,7 @@
         <v>0</v>
       </c>
       <c r="M837">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N837">
         <v>0</v>
@@ -38795,7 +38795,7 @@
         <v>0</v>
       </c>
       <c r="M838">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N838">
         <v>0</v>
@@ -38927,7 +38927,7 @@
         <v>0</v>
       </c>
       <c r="M841">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N841">
         <v>0</v>
@@ -38971,7 +38971,7 @@
         <v>0</v>
       </c>
       <c r="M842">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N842">
         <v>0</v>
@@ -39675,7 +39675,7 @@
         <v>0</v>
       </c>
       <c r="M858">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N858">
         <v>0</v>
@@ -39763,7 +39763,7 @@
         <v>0</v>
       </c>
       <c r="M860">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N860">
         <v>0</v>
@@ -42227,10 +42227,10 @@
         <v>0</v>
       </c>
       <c r="M916">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N916">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="917" spans="1:14">
@@ -42579,10 +42579,10 @@
         <v>0</v>
       </c>
       <c r="M924">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N924">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="925" spans="1:14">
@@ -42623,10 +42623,10 @@
         <v>0</v>
       </c>
       <c r="M925">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N925">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="926" spans="1:14">
@@ -42887,10 +42887,10 @@
         <v>0</v>
       </c>
       <c r="M931">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N931">
-        <v>3.462</v>
+        <v>4.616</v>
       </c>
     </row>
     <row r="932" spans="1:14">
@@ -42931,10 +42931,10 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N932">
-        <v>3.462</v>
+        <v>4.616</v>
       </c>
     </row>
     <row r="933" spans="1:14">
@@ -42975,10 +42975,10 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N933">
-        <v>7.476</v>
+        <v>9.968000000000002</v>
       </c>
     </row>
     <row r="934" spans="1:14">
@@ -43019,10 +43019,10 @@
         <v>0</v>
       </c>
       <c r="M934">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N934">
-        <v>3.738</v>
+        <v>4.984000000000001</v>
       </c>
     </row>
     <row r="935" spans="1:14">
@@ -43063,10 +43063,10 @@
         <v>0</v>
       </c>
       <c r="M935">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N935">
-        <v>3.462</v>
+        <v>4.616</v>
       </c>
     </row>
     <row r="936" spans="1:14">
@@ -43107,10 +43107,10 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N936">
-        <v>3.462</v>
+        <v>4.616</v>
       </c>
     </row>
     <row r="937" spans="1:14">
@@ -43151,10 +43151,10 @@
         <v>0</v>
       </c>
       <c r="M937">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N937">
-        <v>7.476</v>
+        <v>9.968000000000002</v>
       </c>
     </row>
     <row r="938" spans="1:14">
@@ -43195,10 +43195,10 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N938">
-        <v>3.114</v>
+        <v>4.152</v>
       </c>
     </row>
     <row r="939" spans="1:14">
@@ -43547,10 +43547,10 @@
         <v>0</v>
       </c>
       <c r="M946">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N946">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="947" spans="1:14">
@@ -43591,10 +43591,10 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N947">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="948" spans="1:14">
@@ -44075,10 +44075,10 @@
         <v>0</v>
       </c>
       <c r="M958">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N958">
-        <v>3.462</v>
+        <v>4.616</v>
       </c>
     </row>
     <row r="959" spans="1:14">
@@ -44119,10 +44119,10 @@
         <v>0</v>
       </c>
       <c r="M959">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N959">
-        <v>3.462</v>
+        <v>4.616</v>
       </c>
     </row>
     <row r="960" spans="1:14">
@@ -44163,10 +44163,10 @@
         <v>0</v>
       </c>
       <c r="M960">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N960">
-        <v>7.476</v>
+        <v>9.968000000000002</v>
       </c>
     </row>
     <row r="961" spans="1:14">
@@ -44471,10 +44471,10 @@
         <v>0</v>
       </c>
       <c r="M967">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N967">
-        <v>6.944999999999999</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="968" spans="1:14">
@@ -44691,10 +44691,10 @@
         <v>0</v>
       </c>
       <c r="M972">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N972">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="973" spans="1:14">
@@ -44999,10 +44999,10 @@
         <v>0</v>
       </c>
       <c r="M979">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N979">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:14">
@@ -45483,10 +45483,10 @@
         <v>0</v>
       </c>
       <c r="M990">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N990">
-        <v>9.48</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="991" spans="1:14">
@@ -45659,10 +45659,10 @@
         <v>0</v>
       </c>
       <c r="M994">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N994">
-        <v>8.928000000000001</v>
+        <v>11.904</v>
       </c>
     </row>
     <row r="995" spans="1:14">
@@ -47595,7 +47595,7 @@
         <v>0</v>
       </c>
       <c r="M1038">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1038">
         <v>0</v>
@@ -47771,7 +47771,7 @@
         <v>0</v>
       </c>
       <c r="M1042">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1042">
         <v>0</v>
@@ -47815,7 +47815,7 @@
         <v>0</v>
       </c>
       <c r="M1043">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1043">
         <v>0</v>
@@ -47859,7 +47859,7 @@
         <v>0</v>
       </c>
       <c r="M1044">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1044">
         <v>0</v>
@@ -47947,7 +47947,7 @@
         <v>0</v>
       </c>
       <c r="M1046">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1046">
         <v>0</v>
@@ -48255,7 +48255,7 @@
         <v>0</v>
       </c>
       <c r="M1053">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1053">
         <v>0</v>
@@ -48387,7 +48387,7 @@
         <v>0</v>
       </c>
       <c r="M1056">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1056">
         <v>0</v>
@@ -48431,7 +48431,7 @@
         <v>0</v>
       </c>
       <c r="M1057">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1057">
         <v>0</v>
@@ -48519,7 +48519,7 @@
         <v>0</v>
       </c>
       <c r="M1059">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1059">
         <v>0</v>
@@ -48607,7 +48607,7 @@
         <v>0</v>
       </c>
       <c r="M1061">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1061">
         <v>0</v>
@@ -48651,7 +48651,7 @@
         <v>0</v>
       </c>
       <c r="M1062">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1062">
         <v>0</v>
@@ -48695,7 +48695,7 @@
         <v>0</v>
       </c>
       <c r="M1063">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1063">
         <v>0</v>
@@ -48739,7 +48739,7 @@
         <v>0</v>
       </c>
       <c r="M1064">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1064">
         <v>0</v>
@@ -48783,7 +48783,7 @@
         <v>0</v>
       </c>
       <c r="M1065">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1065">
         <v>0</v>
@@ -49047,7 +49047,7 @@
         <v>0</v>
       </c>
       <c r="M1071">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1071">
         <v>0</v>
@@ -49091,7 +49091,7 @@
         <v>0</v>
       </c>
       <c r="M1072">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1072">
         <v>0</v>
@@ -49135,7 +49135,7 @@
         <v>0</v>
       </c>
       <c r="M1073">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1073">
         <v>0</v>
@@ -49179,7 +49179,7 @@
         <v>0</v>
       </c>
       <c r="M1074">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1074">
         <v>0</v>
@@ -49223,7 +49223,7 @@
         <v>0</v>
       </c>
       <c r="M1075">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1075">
         <v>0</v>
@@ -49311,7 +49311,7 @@
         <v>0</v>
       </c>
       <c r="M1077">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1077">
         <v>0</v>
@@ -49355,7 +49355,7 @@
         <v>0</v>
       </c>
       <c r="M1078">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1078">
         <v>0</v>
@@ -49399,7 +49399,7 @@
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1079">
         <v>0</v>
@@ -49443,7 +49443,7 @@
         <v>0</v>
       </c>
       <c r="M1080">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1080">
         <v>0</v>
@@ -49531,7 +49531,7 @@
         <v>0</v>
       </c>
       <c r="M1082">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1082">
         <v>0</v>
@@ -50499,7 +50499,7 @@
         <v>0</v>
       </c>
       <c r="M1104">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N1104">
         <v>0</v>
@@ -50675,7 +50675,7 @@
         <v>0</v>
       </c>
       <c r="M1108">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1108">
         <v>0</v>
@@ -50719,7 +50719,7 @@
         <v>0</v>
       </c>
       <c r="M1109">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1109">
         <v>0</v>
@@ -50763,7 +50763,7 @@
         <v>0</v>
       </c>
       <c r="M1110">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1110">
         <v>0</v>
@@ -50807,7 +50807,7 @@
         <v>0</v>
       </c>
       <c r="M1111">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1111">
         <v>0</v>
@@ -50851,7 +50851,7 @@
         <v>0</v>
       </c>
       <c r="M1112">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1112">
         <v>0</v>
@@ -51027,7 +51027,7 @@
         <v>0</v>
       </c>
       <c r="M1116">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1116">
         <v>0</v>
@@ -51115,7 +51115,7 @@
         <v>0</v>
       </c>
       <c r="M1118">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1118">
         <v>0</v>
@@ -51247,7 +51247,7 @@
         <v>0</v>
       </c>
       <c r="M1121">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1121">
         <v>0</v>
@@ -51335,7 +51335,7 @@
         <v>0</v>
       </c>
       <c r="M1123">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1123">
         <v>0</v>
@@ -51379,7 +51379,7 @@
         <v>0</v>
       </c>
       <c r="M1124">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1124">
         <v>0</v>
@@ -51423,7 +51423,7 @@
         <v>0</v>
       </c>
       <c r="M1125">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1125">
         <v>0</v>
@@ -51467,7 +51467,7 @@
         <v>0</v>
       </c>
       <c r="M1126">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1126">
         <v>0</v>
@@ -51511,7 +51511,7 @@
         <v>0</v>
       </c>
       <c r="M1127">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1127">
         <v>0</v>
@@ -51995,7 +51995,7 @@
         <v>0</v>
       </c>
       <c r="M1138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1138">
         <v>0</v>
@@ -52127,7 +52127,7 @@
         <v>0</v>
       </c>
       <c r="M1141">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1141">
         <v>0</v>
@@ -52655,7 +52655,7 @@
         <v>0</v>
       </c>
       <c r="M1153">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1153">
         <v>0</v>
@@ -52699,7 +52699,7 @@
         <v>0</v>
       </c>
       <c r="M1154">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1154">
         <v>0</v>
@@ -52743,7 +52743,7 @@
         <v>0</v>
       </c>
       <c r="M1155">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1155">
         <v>0</v>
@@ -53359,7 +53359,7 @@
         <v>0</v>
       </c>
       <c r="M1169">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1169">
         <v>0</v>
@@ -53403,7 +53403,7 @@
         <v>0</v>
       </c>
       <c r="M1170">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1170">
         <v>0</v>
@@ -53447,7 +53447,7 @@
         <v>0</v>
       </c>
       <c r="M1171">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1171">
         <v>0</v>
@@ -53491,7 +53491,7 @@
         <v>0</v>
       </c>
       <c r="M1172">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1172">
         <v>0</v>
@@ -53711,7 +53711,7 @@
         <v>0</v>
       </c>
       <c r="M1177">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1177">
         <v>0</v>
@@ -54195,7 +54195,7 @@
         <v>0</v>
       </c>
       <c r="M1188">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1188">
         <v>0</v>
@@ -54283,7 +54283,7 @@
         <v>0</v>
       </c>
       <c r="M1190">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1190">
         <v>0</v>
